--- a/xlsx/country_comparison/radical_redistr_few_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_positive.xlsx
@@ -447,16 +447,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556284805091488</v>
+        <v>0.556622944762609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.606194690265487</v>
+        <v>0.606830818109611</v>
       </c>
       <c r="D2" t="n">
         <v>0.621890547263682</v>
       </c>
       <c r="E2" t="n">
-        <v>0.619961612284069</v>
+        <v>0.620183486238532</v>
       </c>
       <c r="F2" t="n">
         <v>0.746701846965699</v>
@@ -465,13 +465,13 @@
         <v>0.491869918699187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.60952380952381</v>
+        <v>0.610759493670886</v>
       </c>
       <c r="I2" t="n">
-        <v>0.551282051282051</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="J2" t="n">
-        <v>0.527896995708155</v>
+        <v>0.525641025641026</v>
       </c>
       <c r="K2" t="n">
         <v>0.436082474226804</v>
@@ -480,7 +480,7 @@
         <v>0.702127659574468</v>
       </c>
       <c r="M2" t="n">
-        <v>0.487295825771325</v>
+        <v>0.503092783505155</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.494594594594595</v>
+        <v>0.495435833184178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.54122877930477</v>
+        <v>0.541095890410959</v>
       </c>
       <c r="D3" t="n">
         <v>0.585858585858586</v>
       </c>
       <c r="E3" t="n">
-        <v>0.540160642570281</v>
+        <v>0.538767395626243</v>
       </c>
       <c r="F3" t="n">
         <v>0.602122015915119</v>
@@ -509,7 +509,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I3" t="n">
-        <v>0.548009367681499</v>
+        <v>0.548837209302326</v>
       </c>
       <c r="J3" t="n">
         <v>0.327659574468085</v>
@@ -521,7 +521,7 @@
         <v>0.692452830188679</v>
       </c>
       <c r="M3" t="n">
-        <v>0.430191972076789</v>
+        <v>0.449838187702265</v>
       </c>
     </row>
     <row r="4">
@@ -529,16 +529,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.611579153605016</v>
+        <v>0.604909090909091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.661088709677419</v>
+        <v>0.662</v>
       </c>
       <c r="D4" t="n">
         <v>0.615288220551378</v>
       </c>
       <c r="E4" t="n">
-        <v>0.640824337585869</v>
+        <v>0.645038167938931</v>
       </c>
       <c r="F4" t="n">
         <v>0.776455026455027</v>
@@ -547,13 +547,13 @@
         <v>0.768</v>
       </c>
       <c r="H4" t="n">
-        <v>0.737541528239203</v>
+        <v>0.737976782752902</v>
       </c>
       <c r="I4" t="n">
-        <v>0.555691554467564</v>
+        <v>0.556900726392252</v>
       </c>
       <c r="J4" t="n">
-        <v>0.568376068376068</v>
+        <v>0.569296375266525</v>
       </c>
       <c r="K4" t="n">
         <v>0.569</v>
@@ -562,7 +562,7 @@
         <v>0.784</v>
       </c>
       <c r="M4" t="n">
-        <v>0.463523131672598</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="5">
@@ -570,32 +570,32 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.362820512820513</v>
+        <v>0.357132698051486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.392034068136273</v>
+        <v>0.39146613743488</v>
       </c>
       <c r="D5" t="n">
         <v>0.332080200501253</v>
       </c>
       <c r="E5" t="n">
-        <v>0.343473994111874</v>
+        <v>0.33969465648855</v>
       </c>
       <c r="F5" t="n">
         <v>0.554232804232804</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.408637873754153</v>
+        <v>0.407960199004975</v>
       </c>
       <c r="I5" t="n">
-        <v>0.348837209302326</v>
+        <v>0.353510895883777</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.310943060498221</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="6">
@@ -603,16 +603,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428487460815047</v>
+        <v>0.429181818181818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43991935483871</v>
+        <v>0.4402</v>
       </c>
       <c r="D6" t="n">
         <v>0.327067669172932</v>
       </c>
       <c r="E6" t="n">
-        <v>0.452404317958783</v>
+        <v>0.452290076335878</v>
       </c>
       <c r="F6" t="n">
         <v>0.51984126984127</v>
@@ -621,13 +621,13 @@
         <v>0.41</v>
       </c>
       <c r="H6" t="n">
-        <v>0.511627906976744</v>
+        <v>0.51077943615257</v>
       </c>
       <c r="I6" t="n">
-        <v>0.454100367197062</v>
+        <v>0.455205811138015</v>
       </c>
       <c r="J6" t="n">
-        <v>0.391025641025641</v>
+        <v>0.392324093816631</v>
       </c>
       <c r="K6" t="n">
         <v>0.3205</v>
@@ -636,7 +636,7 @@
         <v>0.679</v>
       </c>
       <c r="M6" t="n">
-        <v>0.387900355871886</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_few_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_positive.xlsx
@@ -447,40 +447,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556622944762609</v>
+        <v>0.548749204972874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.606830818109611</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.621890547263682</v>
+        <v>0.616724928283738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.620183486238532</v>
+        <v>0.620808072627315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.746701846965699</v>
+        <v>0.75031578480093</v>
       </c>
       <c r="G2" t="n">
-        <v>0.491869918699187</v>
+        <v>0.495076291993524</v>
       </c>
       <c r="H2" t="n">
-        <v>0.610759493670886</v>
+        <v>0.6117343914093</v>
       </c>
       <c r="I2" t="n">
-        <v>0.555555555555556</v>
+        <v>0.554433842033875</v>
       </c>
       <c r="J2" t="n">
-        <v>0.525641025641026</v>
+        <v>0.529872342725065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.436082474226804</v>
+        <v>0.438153093874799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.702127659574468</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="M2" t="n">
-        <v>0.503092783505155</v>
+        <v>0.508222265196169</v>
       </c>
     </row>
     <row r="3">
@@ -488,40 +488,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.495435833184178</v>
+        <v>0.488009346515533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541095890410959</v>
+        <v>0.55532380171867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.585858585858586</v>
+        <v>0.588306427984715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.538767395626243</v>
+        <v>0.528389866344171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.602122015915119</v>
+        <v>0.602852192238351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.535433070866142</v>
+        <v>0.547884560154944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.571428571428571</v>
+        <v>0.567216620094722</v>
       </c>
       <c r="I3" t="n">
-        <v>0.548837209302326</v>
+        <v>0.542572051573976</v>
       </c>
       <c r="J3" t="n">
-        <v>0.327659574468085</v>
+        <v>0.360111742646164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.352427184466019</v>
+        <v>0.351009115929929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.692452830188679</v>
+        <v>0.671355992475847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.449838187702265</v>
+        <v>0.447291263751444</v>
       </c>
     </row>
     <row r="4">
@@ -529,40 +529,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.604909090909091</v>
+        <v>0.582407081968796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.662</v>
+        <v>0.667387097439935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.615288220551378</v>
+        <v>0.608837961112165</v>
       </c>
       <c r="E4" t="n">
-        <v>0.645038167938931</v>
+        <v>0.64586557994442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.776455026455027</v>
+        <v>0.780212171052138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.768</v>
+        <v>0.766346455024569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.737976782752902</v>
+        <v>0.728439095410156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.556900726392252</v>
+        <v>0.555251737340332</v>
       </c>
       <c r="J4" t="n">
-        <v>0.569296375266525</v>
+        <v>0.566109070039295</v>
       </c>
       <c r="K4" t="n">
-        <v>0.569</v>
+        <v>0.571037878973246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.784</v>
+        <v>0.756844881931732</v>
       </c>
       <c r="M4" t="n">
-        <v>0.474</v>
+        <v>0.472973814509855</v>
       </c>
     </row>
     <row r="5">
@@ -570,32 +570,32 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.357132698051486</v>
+        <v>0.347856888878235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.39146613743488</v>
+        <v>0.389632627264691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332080200501253</v>
+        <v>0.330491389745475</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33969465648855</v>
+        <v>0.335223833737993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.554232804232804</v>
+        <v>0.55884551964724</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.407960199004975</v>
+        <v>0.402288413192778</v>
       </c>
       <c r="I5" t="n">
-        <v>0.353510895883777</v>
+        <v>0.353117864669717</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.311</v>
+        <v>0.306358846199483</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +603,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.429181818181818</v>
+        <v>0.414163491723958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4402</v>
+        <v>0.439007996245569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.327067669172932</v>
+        <v>0.324278224348557</v>
       </c>
       <c r="E6" t="n">
-        <v>0.452290076335878</v>
+        <v>0.441488389669955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51984126984127</v>
+        <v>0.518375799884677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.41</v>
+        <v>0.40468182659417</v>
       </c>
       <c r="H6" t="n">
-        <v>0.51077943615257</v>
+        <v>0.506211274976579</v>
       </c>
       <c r="I6" t="n">
-        <v>0.455205811138015</v>
+        <v>0.451738941455142</v>
       </c>
       <c r="J6" t="n">
-        <v>0.392324093816631</v>
+        <v>0.393105560133332</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3205</v>
+        <v>0.319277017627355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.679</v>
+        <v>0.662536527281334</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4</v>
+        <v>0.400776129109669</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_few_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -441,16 +444,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548749204972874</v>
+        <v>0.556885386017966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -477,18 +483,21 @@
         <v>0.438153093874799</v>
       </c>
       <c r="L2" t="n">
+        <v>0.601307287628408</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.677827112481047</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.508222265196169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.488009346515533</v>
+        <v>0.503488847512142</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -518,18 +527,21 @@
         <v>0.351009115929929</v>
       </c>
       <c r="L3" t="n">
+        <v>0.606011155724885</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.671355992475847</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.447291263751444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.582407081968796</v>
+        <v>0.610664738740297</v>
       </c>
       <c r="C4" t="n">
         <v>0.667387097439935</v>
@@ -559,15 +571,18 @@
         <v>0.571037878973246</v>
       </c>
       <c r="L4" t="n">
+        <v>0.785034538455345</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.756844881931732</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.472973814509855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.347856888878235</v>
@@ -594,16 +609,17 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
+      <c r="M5"/>
+      <c r="N5" t="n">
         <v>0.306358846199483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414163491723958</v>
+        <v>0.411487229771989</v>
       </c>
       <c r="C6" t="n">
         <v>0.439007996245569</v>
@@ -633,9 +649,12 @@
         <v>0.319277017627355</v>
       </c>
       <c r="L6" t="n">
+        <v>0.394354933252772</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.662536527281334</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.400776129109669</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_few_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_positive.xlsx
@@ -64,8 +64,8 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Supports reparations for colonization and slavery in
@@ -453,10 +453,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556885386017966</v>
+        <v>0.557218101837123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -483,7 +483,7 @@
         <v>0.438153093874799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.601307287628408</v>
+        <v>0.604221211671973</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.503488847512142</v>
+        <v>0.504011711533617</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -527,7 +527,7 @@
         <v>0.351009115929929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.606011155724885</v>
+        <v>0.609596257019646</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.610664738740297</v>
+        <v>0.610500687790388</v>
       </c>
       <c r="C4" t="n">
         <v>0.667387097439935</v>
@@ -571,7 +571,7 @@
         <v>0.571037878973246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.785034538455345</v>
+        <v>0.783687718511218</v>
       </c>
       <c r="M4" t="n">
         <v>0.756844881931732</v>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.411487229771989</v>
+        <v>0.41179092322154</v>
       </c>
       <c r="C6" t="n">
         <v>0.439007996245569</v>
@@ -649,7 +649,7 @@
         <v>0.319277017627355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.394354933252772</v>
+        <v>0.396547754749935</v>
       </c>
       <c r="M6" t="n">
         <v>0.662536527281334</v>

--- a/xlsx/country_comparison/radical_redistr_few_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_positive.xlsx
@@ -453,10 +453,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.557218101837123</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -480,16 +480,16 @@
         <v>0.529872342725065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.438153093874799</v>
+        <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.604221211671973</v>
+        <v>0.595756191953926</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
       </c>
       <c r="N2" t="n">
-        <v>0.508222265196169</v>
+        <v>0.508231644030169</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.504011711533617</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -524,16 +524,16 @@
         <v>0.360111742646164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.351009115929929</v>
+        <v>0.351050882580874</v>
       </c>
       <c r="L3" t="n">
-        <v>0.609596257019646</v>
+        <v>0.604399737467109</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
       </c>
       <c r="N3" t="n">
-        <v>0.447291263751444</v>
+        <v>0.447300643788012</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.610500687790388</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C4" t="n">
         <v>0.667387097439935</v>
@@ -568,16 +568,16 @@
         <v>0.566109070039295</v>
       </c>
       <c r="K4" t="n">
-        <v>0.571037878973246</v>
+        <v>0.571096670838126</v>
       </c>
       <c r="L4" t="n">
-        <v>0.783687718511218</v>
+        <v>0.778963825426238</v>
       </c>
       <c r="M4" t="n">
         <v>0.756844881931732</v>
       </c>
       <c r="N4" t="n">
-        <v>0.472973814509855</v>
+        <v>0.472900191628792</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C5" t="n">
         <v>0.389632627264691</v>
@@ -611,7 +611,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.306358846199483</v>
+        <v>0.306445646731996</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.41179092322154</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C6" t="n">
         <v>0.439007996245569</v>
@@ -646,16 +646,16 @@
         <v>0.393105560133332</v>
       </c>
       <c r="K6" t="n">
-        <v>0.319277017627355</v>
+        <v>0.319383802321488</v>
       </c>
       <c r="L6" t="n">
-        <v>0.396547754749935</v>
+        <v>0.389233362357354</v>
       </c>
       <c r="M6" t="n">
         <v>0.662536527281334</v>
       </c>
       <c r="N6" t="n">
-        <v>0.400776129109669</v>
+        <v>0.40055514051731</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_few_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_few_positive.xlsx
@@ -453,10 +453,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -483,7 +483,7 @@
         <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.595756191953926</v>
+        <v>0.599020579536134</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -497,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -527,7 +527,7 @@
         <v>0.351050882580874</v>
       </c>
       <c r="L3" t="n">
-        <v>0.604399737467109</v>
+        <v>0.605713809935328</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
@@ -541,43 +541,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.667387097439935</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.608837961112165</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.64586557994442</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.780212171052138</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G4" t="n">
-        <v>0.766346455024569</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H4" t="n">
-        <v>0.728439095410156</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I4" t="n">
-        <v>0.555251737340332</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.566109070039295</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.571096670838126</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M4" t="n">
-        <v>0.756844881931732</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N4" t="n">
-        <v>0.472900191628792</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="5">
@@ -591,27 +591,27 @@
         <v>0.389632627264691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.330491389745475</v>
+        <v>0.330319367513297</v>
       </c>
       <c r="E5" t="n">
-        <v>0.335223833737993</v>
+        <v>0.336287925808747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55884551964724</v>
+        <v>0.557635114819894</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.402288413192778</v>
+        <v>0.403966853457814</v>
       </c>
       <c r="I5" t="n">
-        <v>0.353117864669717</v>
+        <v>0.352147255041012</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.306445646731996</v>
+        <v>0.306378388289677</v>
       </c>
     </row>
     <row r="6">
@@ -619,43 +619,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C6" t="n">
         <v>0.439007996245569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.324278224348557</v>
+        <v>0.323193155043108</v>
       </c>
       <c r="E6" t="n">
-        <v>0.441488389669955</v>
+        <v>0.444463951462934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.518375799884677</v>
+        <v>0.518235877111197</v>
       </c>
       <c r="G6" t="n">
-        <v>0.40468182659417</v>
+        <v>0.41082014424506</v>
       </c>
       <c r="H6" t="n">
-        <v>0.506211274976579</v>
+        <v>0.500549487362927</v>
       </c>
       <c r="I6" t="n">
-        <v>0.451738941455142</v>
+        <v>0.453356423772496</v>
       </c>
       <c r="J6" t="n">
-        <v>0.393105560133332</v>
+        <v>0.387974052023334</v>
       </c>
       <c r="K6" t="n">
-        <v>0.319383802321488</v>
+        <v>0.32098402394466</v>
       </c>
       <c r="L6" t="n">
-        <v>0.389233362357354</v>
+        <v>0.389828757171604</v>
       </c>
       <c r="M6" t="n">
-        <v>0.662536527281334</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="N6" t="n">
-        <v>0.40055514051731</v>
+        <v>0.400110573948723</v>
       </c>
     </row>
   </sheetData>
